--- a/artfynd/A 3294-2026 artfynd.xlsx
+++ b/artfynd/A 3294-2026 artfynd.xlsx
@@ -2111,7 +2111,7 @@
         <v>129423641</v>
       </c>
       <c r="B16" t="n">
-        <v>91825</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
